--- a/Sandbox/AzCam_IC_Archon_Commands.xlsx
+++ b/Sandbox/AzCam_IC_Archon_Commands.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rwpogge/Documents/Work Stuff/Instruments/MODS/Software/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rwpogge/Documents/Work Stuff/Instruments/MODS/MODS2025/Sandbox/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61B23F00-410F-164B-9A57-1C582CECDFAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74B9D44C-4448-254F-93ED-E1150CBDDE8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4340" yWindow="5500" windowWidth="28040" windowHeight="17440" activeTab="3" xr2:uid="{C3245DD8-5BD4-6944-82A2-0D8031999DEC}"/>
+    <workbookView xWindow="4300" yWindow="5480" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{C3245DD8-5BD4-6944-82A2-0D8031999DEC}"/>
   </bookViews>
   <sheets>
     <sheet name="ARC to ARCHON" sheetId="2" r:id="rId1"/>
@@ -851,18 +851,6 @@
     <t>NEXTFILE</t>
   </si>
   <si>
-    <t>PATH</t>
-  </si>
-  <si>
-    <t>EXPTIME</t>
-  </si>
-  <si>
-    <t>CCDBIN</t>
-  </si>
-  <si>
-    <t>ROI</t>
-  </si>
-  <si>
     <t>GO</t>
   </si>
   <si>
@@ -959,12 +947,6 @@
     <t>AzCam Server command</t>
   </si>
   <si>
-    <t>XBIN</t>
-  </si>
-  <si>
-    <t>YBIN</t>
-  </si>
-  <si>
     <t>set_roi -1 -1 -1 -1 xbin -1</t>
   </si>
   <si>
@@ -1100,12 +1082,6 @@
     <t>Updated: 2025 July 12</t>
   </si>
   <si>
-    <t>mods.set_expTime(exptime)</t>
-  </si>
-  <si>
-    <t>mods.get_expTime()</t>
-  </si>
-  <si>
     <t>mods.get_roi()</t>
   </si>
   <si>
@@ -1299,6 +1275,30 @@
   </si>
   <si>
     <t>...</t>
+  </si>
+  <si>
+    <t>mods.get_exptime()</t>
+  </si>
+  <si>
+    <t>mods.set_exptime(exptime)</t>
+  </si>
+  <si>
+    <t>CCDBIN xbin ybin</t>
+  </si>
+  <si>
+    <t>EXPTIME exptime</t>
+  </si>
+  <si>
+    <t>XBIN xbin</t>
+  </si>
+  <si>
+    <t>YBIN ybin</t>
+  </si>
+  <si>
+    <t>ROI sc ec sr er</t>
+  </si>
+  <si>
+    <t>PATH /path/to/date</t>
   </si>
 </sst>
 </file>
@@ -1385,26 +1385,26 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2121,7 +2121,7 @@
         <v>194</v>
       </c>
       <c r="D35" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="F35" t="s">
         <v>264</v>
@@ -2135,7 +2135,7 @@
         <v>196</v>
       </c>
       <c r="D36" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
@@ -2155,15 +2155,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D4B8949-0356-4744-BB96-B823AF3E2E12}">
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.5" style="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="37.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="34.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="91.83203125" bestFit="1" customWidth="1"/>
@@ -2172,43 +2172,43 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="14" t="s">
+        <v>301</v>
+      </c>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="E4" s="14"/>
+      <c r="G4" s="2" t="s">
         <v>305</v>
-      </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10" t="s">
-        <v>332</v>
-      </c>
-      <c r="E4" s="10"/>
-      <c r="G4" s="2" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
       <c r="B5" s="6" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>2</v>
@@ -2216,114 +2216,114 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>283</v>
-      </c>
-      <c r="B6" t="s">
-        <v>331</v>
-      </c>
-      <c r="C6" t="s">
-        <v>316</v>
+        <v>279</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>310</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>284</v>
-      </c>
-      <c r="B7" t="s">
-        <v>322</v>
-      </c>
-      <c r="C7" t="s">
-        <v>317</v>
+        <v>280</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>311</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>285</v>
-      </c>
-      <c r="B8" t="s">
-        <v>323</v>
-      </c>
-      <c r="C8" t="s">
-        <v>318</v>
+        <v>281</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>312</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>286</v>
-      </c>
-      <c r="B9" t="s">
-        <v>324</v>
-      </c>
-      <c r="C9" t="s">
-        <v>319</v>
+        <v>282</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>313</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>287</v>
-      </c>
-      <c r="B10" t="s">
-        <v>325</v>
-      </c>
-      <c r="C10" t="s">
-        <v>320</v>
+        <v>283</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>314</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>288</v>
-      </c>
-      <c r="B11" t="s">
-        <v>326</v>
-      </c>
-      <c r="C11" t="s">
-        <v>321</v>
+        <v>284</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>315</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>289</v>
-      </c>
-      <c r="B12" t="s">
-        <v>327</v>
-      </c>
-      <c r="C12" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="C12" s="9" t="s">
         <v>263</v>
       </c>
       <c r="D12" s="9" t="s">
@@ -2335,373 +2335,373 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>301</v>
-      </c>
-      <c r="B14" t="s">
-        <v>302</v>
+        <v>297</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>298</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>269</v>
       </c>
-      <c r="B15" t="s">
-        <v>290</v>
+      <c r="B15" s="9" t="s">
+        <v>286</v>
       </c>
       <c r="D15" s="9" t="s">
         <v>263</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="F15" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>312</v>
-      </c>
-      <c r="B16" t="s">
+        <v>306</v>
+      </c>
+      <c r="B16" s="9" t="s">
         <v>263</v>
       </c>
       <c r="D16" s="9" t="s">
         <v>263</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="F16" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>270</v>
-      </c>
-      <c r="B17" t="s">
-        <v>374</v>
+        <v>419</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>366</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>297</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="C19" t="s">
-        <v>369</v>
+        <v>293</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>359</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>361</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="F19" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>298</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="C20" t="s">
-        <v>370</v>
+        <v>294</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>362</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="F20" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>296</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>418</v>
+        <v>292</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>410</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>410</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>299</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>418</v>
+        <v>295</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>410</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>410</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>300</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>418</v>
+        <v>296</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>411</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>410</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>271</v>
-      </c>
-      <c r="B25" t="s">
+        <v>415</v>
+      </c>
+      <c r="B25" s="9" t="s">
         <v>244</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>353</v>
+        <v>413</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>354</v>
+        <v>412</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>272</v>
-      </c>
-      <c r="B26" t="s">
-        <v>292</v>
-      </c>
-      <c r="C26" t="s">
+        <v>414</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="C26" s="9" t="s">
         <v>259</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="F26" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>306</v>
-      </c>
-      <c r="B27" t="s">
-        <v>308</v>
-      </c>
-      <c r="C27" t="s">
+        <v>416</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="C27" s="9" t="s">
         <v>259</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>307</v>
-      </c>
-      <c r="B28" t="s">
-        <v>330</v>
-      </c>
-      <c r="C28" t="s">
+        <v>417</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="C28" s="9" t="s">
         <v>259</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>273</v>
-      </c>
-      <c r="B29" t="s">
-        <v>294</v>
-      </c>
-      <c r="C29" t="s">
+        <v>418</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="C29" s="9" t="s">
         <v>259</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="F29" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>361</v>
-      </c>
-      <c r="C30" t="s">
-        <v>293</v>
+        <v>353</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>289</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>274</v>
-      </c>
-      <c r="B32" t="s">
-        <v>295</v>
+        <v>270</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>291</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="F32" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>275</v>
-      </c>
-      <c r="B33" t="s">
+        <v>271</v>
+      </c>
+      <c r="B33" s="9" t="s">
         <v>74</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="F33" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>276</v>
-      </c>
-      <c r="B34" t="s">
+        <v>272</v>
+      </c>
+      <c r="B34" s="9" t="s">
         <v>68</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>277</v>
-      </c>
-      <c r="B35" t="s">
+        <v>273</v>
+      </c>
+      <c r="B35" s="9" t="s">
         <v>71</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="F36" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>278</v>
-      </c>
-      <c r="B38" t="s">
-        <v>377</v>
+        <v>274</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>369</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>263</v>
       </c>
       <c r="F38" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>279</v>
-      </c>
-      <c r="B39" t="s">
+        <v>275</v>
+      </c>
+      <c r="B39" s="9" t="s">
         <v>247</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>263</v>
       </c>
       <c r="F39" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>280</v>
-      </c>
-      <c r="B41" t="s">
-        <v>291</v>
+        <v>276</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>281</v>
-      </c>
-      <c r="B42" t="s">
-        <v>291</v>
+        <v>277</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>282</v>
-      </c>
-      <c r="B43" t="s">
-        <v>291</v>
+        <v>278</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>287</v>
       </c>
     </row>
   </sheetData>
@@ -2733,53 +2733,53 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="12" t="s">
-        <v>385</v>
-      </c>
-      <c r="B4" s="12"/>
-      <c r="E4" s="16" t="s">
+      <c r="A4" s="15" t="s">
+        <v>377</v>
+      </c>
+      <c r="B4" s="15"/>
+      <c r="E4" s="17" t="s">
+        <v>394</v>
+      </c>
+      <c r="F4" s="17"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="10" t="s">
+        <v>378</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>379</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="D5" s="11"/>
+      <c r="E5" s="16" t="s">
         <v>402</v>
       </c>
-      <c r="F4" s="16"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="11" t="s">
-        <v>386</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>387</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>397</v>
-      </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="15" t="s">
-        <v>410</v>
-      </c>
-      <c r="F5" s="15"/>
+      <c r="F5" s="16"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="9">
         <v>0</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="1" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
@@ -2789,14 +2789,14 @@
         <v>1</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="1" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -2804,7 +2804,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
@@ -2814,7 +2814,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
@@ -2824,7 +2824,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
@@ -2834,7 +2834,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
@@ -2844,14 +2844,14 @@
         <v>6</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="1" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -2859,14 +2859,14 @@
         <v>7</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="1" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -2874,19 +2874,19 @@
         <v>8</v>
       </c>
       <c r="B14" s="9" t="s">
+        <v>385</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>392</v>
+      </c>
+      <c r="D14" s="9" t="s">
         <v>393</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="E14" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="F14" s="9" t="s">
         <v>400</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>401</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -2894,14 +2894,14 @@
         <v>9</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="1" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -2909,22 +2909,22 @@
         <v>10</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="17">
+      <c r="A17" s="13">
         <v>11</v>
       </c>
-      <c r="B17" s="17" t="s">
-        <v>396</v>
-      </c>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="13"/>
+      <c r="B17" s="13" t="s">
+        <v>388</v>
+      </c>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="11"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="9"/>
@@ -2975,7 +2975,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77079F48-8B29-4B4C-88F0-A123F6797FEA}">
   <dimension ref="A1:D138"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
@@ -3031,7 +3031,7 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="D5" t="s">
         <v>28</v>
@@ -3045,7 +3045,7 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="D6" t="s">
         <v>29</v>
